--- a/lib/doc/external_attribute.xlsx
+++ b/lib/doc/external_attribute.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="134">
   <si>
     <t>Array</t>
   </si>
@@ -318,12 +318,6 @@
     <t>Textarea</t>
   </si>
   <si>
-    <t>Grid 1 column</t>
-  </si>
-  <si>
-    <t>Custom grid</t>
-  </si>
-  <si>
     <t>simple list</t>
   </si>
   <si>
@@ -333,9 +327,6 @@
     <t>upload image</t>
   </si>
   <si>
-    <t>in-active</t>
-  </si>
-  <si>
     <t xml:space="preserve">date </t>
   </si>
   <si>
@@ -369,26 +360,81 @@
     <t>ITTA</t>
   </si>
   <si>
-    <t>ITG1</t>
-  </si>
-  <si>
-    <t>ITGX</t>
-  </si>
-  <si>
     <t>ITSL</t>
   </si>
   <si>
     <t>ITFT</t>
+  </si>
+  <si>
+    <t>26,27,28,29,30,31,32</t>
+  </si>
+  <si>
+    <t>ITFI</t>
+  </si>
+  <si>
+    <t>ITFD</t>
+  </si>
+  <si>
+    <t>ITDT</t>
+  </si>
+  <si>
+    <t>ITRG</t>
+  </si>
+  <si>
+    <t>ITTB</t>
+  </si>
+  <si>
+    <t>ITLA</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>ITTG</t>
+  </si>
+  <si>
+    <t>toggle switch</t>
+  </si>
+  <si>
+    <t>ITCE</t>
+  </si>
+  <si>
+    <t>code editor</t>
+  </si>
+  <si>
+    <t>ITTE</t>
+  </si>
+  <si>
+    <t>textarea editor</t>
+  </si>
+  <si>
+    <t>ITSH</t>
+  </si>
+  <si>
+    <t>sub-heading</t>
+  </si>
+  <si>
+    <t>33,34,35,36,37,38,39,40</t>
+  </si>
+  <si>
+    <t>S.No</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -414,7 +460,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -437,11 +483,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -449,8 +515,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -745,982 +814,1140 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:J52"/>
+  <dimension ref="A2:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="29.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="7" width="24" customWidth="1"/>
-    <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="9" max="9" width="20.7109375" customWidth="1"/>
-    <col min="10" max="10" width="40.140625" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="7" width="24" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" customWidth="1"/>
+    <col min="11" max="11" width="40.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
-      <c r="D2" t="s">
+    <row r="2" spans="1:11">
+      <c r="C2" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="1:11">
+      <c r="A6" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="B6" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J6" s="1" t="s">
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="2:10">
       <c r="B7" s="1">
         <v>0</v>
       </c>
-      <c r="C7" s="1">
-        <v>0</v>
+      <c r="C7" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="1" t="s">
-        <v>112</v>
+      <c r="H7" s="1">
+        <v>1</v>
       </c>
       <c r="I7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="J7" s="4">
+      <c r="K7" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="1:11">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
       <c r="B8" s="1">
         <v>1</v>
       </c>
-      <c r="C8" s="1">
-        <v>1</v>
+      <c r="C8" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="1" t="s">
-        <v>113</v>
+      <c r="H8" s="1">
+        <v>2</v>
       </c>
       <c r="I8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="J8" s="4">
+      <c r="K8" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="1:11">
+      <c r="A9" s="1">
+        <v>2</v>
+      </c>
       <c r="B9" s="1">
         <v>2</v>
       </c>
-      <c r="C9" s="1">
-        <v>2</v>
+      <c r="C9" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="F9" s="3"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="1" t="s">
-        <v>114</v>
+      <c r="H9" s="1">
+        <v>3</v>
       </c>
       <c r="I9" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="J9" s="4"/>
-    </row>
-    <row r="10" spans="2:10">
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1">
+        <v>3</v>
+      </c>
       <c r="B10" s="1">
         <v>3</v>
       </c>
-      <c r="C10" s="1">
-        <v>3</v>
+      <c r="C10" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="1" t="s">
-        <v>115</v>
+      <c r="H10" s="1">
+        <v>4</v>
       </c>
       <c r="I10" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="2:10">
+      <c r="K10" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1">
+        <v>4</v>
+      </c>
       <c r="B11" s="1">
         <v>4</v>
       </c>
-      <c r="C11" s="1">
-        <v>4</v>
+      <c r="C11" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="1" t="s">
-        <v>116</v>
+      <c r="H11" s="1">
+        <v>5</v>
       </c>
       <c r="I11" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="J11" s="4">
+      <c r="K11" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="1:11">
+      <c r="A12" s="1">
+        <v>32</v>
+      </c>
       <c r="B12" s="1">
         <v>5</v>
       </c>
-      <c r="C12" s="1">
-        <v>32</v>
+      <c r="C12" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F12" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="F12" s="9"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="1" t="s">
-        <v>117</v>
+      <c r="H12" s="1">
+        <v>6</v>
       </c>
       <c r="I12" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="2:10">
+      <c r="K12" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1">
+        <v>5</v>
+      </c>
       <c r="B13" s="1">
         <v>6</v>
       </c>
-      <c r="C13" s="1">
-        <v>5</v>
+      <c r="C13" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="1">
+        <v>7</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1">
         <v>8</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="2:10">
       <c r="B14" s="1">
         <v>7</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="1">
         <v>8</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="I14" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1">
         <v>9</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="J14" s="4"/>
-    </row>
-    <row r="15" spans="2:10">
       <c r="B15" s="1">
         <v>8</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="1">
         <v>9</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="I15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J15" s="4"/>
-    </row>
-    <row r="16" spans="2:10">
+        <v>117</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1">
+        <v>17</v>
+      </c>
       <c r="B16" s="1">
         <v>9</v>
       </c>
-      <c r="C16" s="1">
-        <v>17</v>
+      <c r="C16" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F16" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="J16" s="4"/>
-    </row>
-    <row r="17" spans="2:10">
+      <c r="H16" s="1">
+        <v>10</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1">
+        <v>10</v>
+      </c>
       <c r="B17" s="1">
         <v>10</v>
       </c>
-      <c r="C17" s="1">
-        <v>10</v>
+      <c r="C17" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="1">
+        <v>11</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1">
         <v>12</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="J17" s="4"/>
-    </row>
-    <row r="18" spans="2:10">
       <c r="B18" s="1">
         <v>11</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="1">
         <v>12</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="1"/>
       <c r="I18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="4"/>
-    </row>
-    <row r="19" spans="2:10">
+        <v>120</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1">
+        <v>45</v>
+      </c>
       <c r="B19" s="1">
         <v>12</v>
       </c>
-      <c r="C19" s="1">
-        <v>45</v>
+      <c r="C19" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>61</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F19" s="3"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="1"/>
+      <c r="H19" s="1">
+        <v>13</v>
+      </c>
       <c r="I19" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="J19" s="4"/>
-    </row>
-    <row r="20" spans="2:10">
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1">
+        <v>13</v>
+      </c>
       <c r="B20" s="1">
         <v>13</v>
       </c>
-      <c r="C20" s="1">
-        <v>13</v>
+      <c r="C20" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>61</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10">
+      <c r="H20" s="1">
+        <v>14</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1">
+        <v>14</v>
+      </c>
       <c r="B21" s="1">
         <v>14</v>
       </c>
-      <c r="C21" s="1">
-        <v>14</v>
+      <c r="C21" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>61</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F21" s="3"/>
       <c r="G21" s="3"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="2:10">
+      <c r="H21" s="1">
+        <v>15</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1">
+        <v>34</v>
+      </c>
       <c r="B22" s="1">
         <v>15</v>
       </c>
-      <c r="C22" s="1">
-        <v>34</v>
+      <c r="C22" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>61</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F22" s="3"/>
       <c r="G22" s="3"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="J22" s="1"/>
-    </row>
-    <row r="23" spans="2:10">
+      <c r="H22" s="1">
+        <v>16</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
       <c r="B23" s="1">
         <v>16</v>
       </c>
-      <c r="C23" s="1">
-        <v>21</v>
+      <c r="C23" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>61</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F23" s="3"/>
       <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="2:10">
+      <c r="H23" s="1">
+        <v>17</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
       <c r="B24" s="1">
         <v>17</v>
       </c>
-      <c r="C24" s="1">
-        <v>22</v>
+      <c r="C24" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>61</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F24" s="3"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="1:11">
+      <c r="A25" s="1">
+        <v>49</v>
+      </c>
       <c r="B25" s="1">
         <v>18</v>
       </c>
-      <c r="C25" s="1">
-        <v>49</v>
+      <c r="C25" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E25" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="3"/>
       <c r="G25" s="3"/>
-      <c r="I25" t="s">
-        <v>109</v>
-      </c>
-      <c r="J25" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10">
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="1">
+        <v>35</v>
+      </c>
       <c r="B26" s="1">
         <v>19</v>
       </c>
-      <c r="C26" s="1">
-        <v>35</v>
+      <c r="C26" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>61</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="1:11">
+      <c r="A27" s="1">
+        <v>36</v>
+      </c>
       <c r="B27" s="1">
         <v>20</v>
       </c>
-      <c r="C27" s="1">
-        <v>36</v>
+      <c r="C27" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>61</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F27" s="3"/>
       <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="2:10">
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="1">
+        <v>37</v>
+      </c>
       <c r="B28" s="1">
         <v>21</v>
       </c>
-      <c r="C28" s="1">
-        <v>37</v>
+      <c r="C28" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>61</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F28" s="3"/>
       <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="2:10">
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="1">
+        <v>38</v>
+      </c>
       <c r="B29" s="1">
         <v>22</v>
       </c>
-      <c r="C29" s="1">
-        <v>38</v>
+      <c r="C29" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>61</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F29" s="3"/>
       <c r="G29" s="3"/>
-    </row>
-    <row r="30" spans="2:10">
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="1">
+        <v>15</v>
+      </c>
       <c r="B30" s="1">
         <v>23</v>
       </c>
-      <c r="C30" s="1">
-        <v>15</v>
+      <c r="C30" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>61</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F30" s="3"/>
       <c r="G30" s="3"/>
-    </row>
-    <row r="31" spans="2:10">
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="1">
+        <v>51</v>
+      </c>
       <c r="B31" s="1">
         <v>24</v>
       </c>
-      <c r="C31" s="1">
-        <v>51</v>
+      <c r="C31" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E31" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="3"/>
       <c r="G31" s="3"/>
-    </row>
-    <row r="32" spans="2:10">
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="1">
+        <v>16</v>
+      </c>
       <c r="B32" s="1">
         <v>25</v>
       </c>
-      <c r="C32" s="1">
-        <v>16</v>
+      <c r="C32" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>61</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F32" s="3"/>
       <c r="G32" s="3"/>
-    </row>
-    <row r="33" spans="2:7">
+      <c r="H32" s="3"/>
+      <c r="J32" t="s">
+        <v>106</v>
+      </c>
+      <c r="K32" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="1">
+        <v>18</v>
+      </c>
       <c r="B33" s="1">
         <v>26</v>
       </c>
-      <c r="C33" s="1">
-        <v>18</v>
+      <c r="C33" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E33" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="3"/>
       <c r="G33" s="3"/>
-    </row>
-    <row r="34" spans="2:7">
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="1">
+        <v>19</v>
+      </c>
       <c r="B34" s="1">
         <v>27</v>
       </c>
-      <c r="C34" s="1">
-        <v>19</v>
+      <c r="C34" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>61</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F34" s="3"/>
       <c r="G34" s="3"/>
-    </row>
-    <row r="35" spans="2:7">
+      <c r="H34" s="3"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="1">
+        <v>44</v>
+      </c>
       <c r="B35" s="1">
         <v>28</v>
       </c>
-      <c r="C35" s="1">
-        <v>44</v>
+      <c r="C35" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>61</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F35" s="3"/>
       <c r="G35" s="3"/>
-    </row>
-    <row r="36" spans="2:7">
+      <c r="H35" s="3"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="1">
+        <v>46</v>
+      </c>
       <c r="B36" s="1">
         <v>29</v>
       </c>
-      <c r="C36" s="1">
-        <v>46</v>
+      <c r="C36" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>61</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F36" s="3"/>
       <c r="G36" s="3"/>
-    </row>
-    <row r="37" spans="2:7">
+      <c r="H36" s="3"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="1">
+        <v>47</v>
+      </c>
       <c r="B37" s="1">
         <v>30</v>
       </c>
-      <c r="C37" s="1">
-        <v>47</v>
+      <c r="C37" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>61</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F37" s="3"/>
       <c r="G37" s="3"/>
-    </row>
-    <row r="38" spans="2:7">
+      <c r="H37" s="3"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="1">
+        <v>48</v>
+      </c>
       <c r="B38" s="1">
         <v>31</v>
       </c>
-      <c r="C38" s="1">
-        <v>48</v>
+      <c r="C38" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>61</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F38" s="3"/>
       <c r="G38" s="3"/>
-    </row>
-    <row r="39" spans="2:7">
+      <c r="H38" s="3"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="1">
+        <v>20</v>
+      </c>
       <c r="B39" s="1">
         <v>32</v>
       </c>
-      <c r="C39" s="1">
-        <v>20</v>
+      <c r="C39" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>61</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F39" s="3"/>
       <c r="G39" s="3"/>
-    </row>
-    <row r="40" spans="2:7">
+      <c r="H39" s="3"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="1">
+        <v>23</v>
+      </c>
       <c r="B40" s="1">
         <v>33</v>
       </c>
-      <c r="C40" s="1">
-        <v>23</v>
+      <c r="C40" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E40" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="3"/>
       <c r="G40" s="3"/>
-    </row>
-    <row r="41" spans="2:7">
+      <c r="H40" s="3"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="1">
+        <v>24</v>
+      </c>
       <c r="B41" s="1">
         <v>34</v>
       </c>
-      <c r="C41" s="1">
-        <v>24</v>
+      <c r="C41" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>61</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F41" s="3"/>
       <c r="G41" s="3"/>
-    </row>
-    <row r="42" spans="2:7">
+      <c r="H41" s="3"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="1">
+        <v>25</v>
+      </c>
       <c r="B42" s="1">
         <v>35</v>
       </c>
-      <c r="C42" s="1">
-        <v>25</v>
+      <c r="C42" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>61</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F42" s="3"/>
       <c r="G42" s="3"/>
-    </row>
-    <row r="43" spans="2:7">
+      <c r="H42" s="3"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="1">
+        <v>26</v>
+      </c>
       <c r="B43" s="1">
         <v>36</v>
       </c>
-      <c r="C43" s="1">
-        <v>26</v>
+      <c r="C43" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>61</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F43" s="3"/>
       <c r="G43" s="3"/>
-    </row>
-    <row r="44" spans="2:7">
+      <c r="H43" s="3"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="1">
+        <v>27</v>
+      </c>
       <c r="B44" s="1">
         <v>37</v>
       </c>
-      <c r="C44" s="1">
-        <v>27</v>
+      <c r="C44" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>61</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F44" s="3"/>
       <c r="G44" s="3"/>
-    </row>
-    <row r="45" spans="2:7">
+      <c r="H44" s="3"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="1">
+        <v>28</v>
+      </c>
       <c r="B45" s="1">
         <v>38</v>
       </c>
-      <c r="C45" s="1">
-        <v>28</v>
+      <c r="C45" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>61</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F45" s="3"/>
       <c r="G45" s="3"/>
-    </row>
-    <row r="46" spans="2:7">
+      <c r="H45" s="3"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="1">
+        <v>29</v>
+      </c>
       <c r="B46" s="1">
         <v>39</v>
       </c>
-      <c r="C46" s="1">
-        <v>29</v>
+      <c r="C46" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>61</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F46" s="3"/>
       <c r="G46" s="3"/>
-    </row>
-    <row r="47" spans="2:7">
+      <c r="H46" s="3"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="1">
+        <v>30</v>
+      </c>
       <c r="B47" s="1">
         <v>40</v>
       </c>
-      <c r="C47" s="1">
-        <v>30</v>
+      <c r="C47" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>61</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F47" s="3"/>
       <c r="G47" s="3"/>
-    </row>
-    <row r="48" spans="2:7">
+      <c r="H47" s="3"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="1">
+        <v>39</v>
+      </c>
       <c r="B48" s="1">
         <v>41</v>
       </c>
-      <c r="C48" s="1">
-        <v>39</v>
+      <c r="C48" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E48" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="3"/>
       <c r="G48" s="3"/>
-    </row>
-    <row r="49" spans="2:7">
+      <c r="H48" s="3"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="1">
+        <v>40</v>
+      </c>
       <c r="B49" s="1">
         <v>42</v>
       </c>
-      <c r="C49" s="1">
-        <v>40</v>
+      <c r="C49" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>61</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F49" s="3"/>
       <c r="G49" s="3"/>
-    </row>
-    <row r="50" spans="2:7">
+      <c r="H49" s="3"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="1">
+        <v>41</v>
+      </c>
       <c r="B50" s="1">
         <v>43</v>
       </c>
-      <c r="C50" s="1">
-        <v>41</v>
+      <c r="C50" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>61</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F50" s="3"/>
       <c r="G50" s="3"/>
-    </row>
-    <row r="51" spans="2:7">
+      <c r="H50" s="3"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="1">
+        <v>42</v>
+      </c>
       <c r="B51" s="1">
         <v>44</v>
       </c>
-      <c r="C51" s="1">
-        <v>42</v>
+      <c r="C51" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>61</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F51" s="3"/>
       <c r="G51" s="3"/>
-    </row>
-    <row r="52" spans="2:7">
+      <c r="H51" s="3"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="1">
+        <v>43</v>
+      </c>
       <c r="B52" s="1">
         <v>45</v>
       </c>
-      <c r="C52" s="1">
-        <v>43</v>
+      <c r="C52" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>61</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F52" s="3"/>
       <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/lib/doc/external_attribute.xlsx
+++ b/lib/doc/external_attribute.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="135">
   <si>
     <t>Array</t>
   </si>
@@ -418,6 +418,9 @@
   </si>
   <si>
     <t>S.No</t>
+  </si>
+  <si>
+    <t>41,42,43,44,45</t>
   </si>
 </sst>
 </file>
@@ -816,8 +819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1312,7 +1315,9 @@
       <c r="J21" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="K21" s="1"/>
+      <c r="K21" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1">
